--- a/샘플데이터/BROCOLLI PATTACH SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI PATTACH SAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hooyu\DOCUME~1\카카오~1\sql모음\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hooyu\Documents\카카오톡 받은 파일\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,104 +65,111 @@
     <t>resources/thumbnail_upfiles/</t>
   </si>
   <si>
-    <t>f20201020.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20201020.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th20201020.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f20201021.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f20201022.img</t>
-  </si>
-  <si>
-    <t>f20201023.img</t>
-  </si>
-  <si>
-    <t>s20201021.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th20201021.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f20201024.img</t>
-  </si>
-  <si>
-    <t>f20201025.img</t>
-  </si>
-  <si>
-    <t>f20201026.img</t>
-  </si>
-  <si>
-    <t>f20201027.img</t>
-  </si>
-  <si>
-    <t>f20201028.img</t>
-  </si>
-  <si>
-    <t>s20201022.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20201023.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th20201022.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th20201023.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20201024.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th20201024.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20201025.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th20201025.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20201026.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th20201026.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20201027.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th20201027.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s20201028.img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th20201028.img</t>
+    <t>f20201020.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20201020.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th20201020.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f20201021.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20201021.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th20201021.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f20201022.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20201022.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th20201022.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f20201023.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20201023.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th20201023.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f20201024.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20201024.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th20201024.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f20201025.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20201025.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th20201025.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f20201026.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20201026.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th20201026.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f20201027.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20201027.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th20201027.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f20201028.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s20201028.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>th20201028.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +503,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -608,7 +615,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -625,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -642,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -659,7 +666,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -676,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -693,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -710,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -727,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -744,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -761,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -778,7 +785,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -795,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -812,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -829,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -846,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -863,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -880,7 +887,7 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -897,7 +904,7 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -914,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -931,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -948,7 +955,7 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">

--- a/샘플데이터/BROCOLLI PATTACH SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI PATTACH SAMPLE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="38">
   <si>
     <t>P_ATTACHNO</t>
   </si>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -992,6 +992,1230 @@
         <v>37</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>22</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>23</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>24</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>29</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>30</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>30</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>30</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>10</v>
+      </c>
+      <c r="E91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>31</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>31</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>32</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>33</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>33</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/샘플데이터/BROCOLLI PATTACH SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI PATTACH SAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hooyu\Documents\카카오톡 받은 파일\샘플데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Team_broccoli\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="37">
   <si>
     <t>P_ATTACHNO</t>
   </si>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>P_ATTACHIMG</t>
-  </si>
-  <si>
-    <t>SEQ_PAT.NEXTVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P_ATTACHNAME</t>
@@ -503,7 +499,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -530,1690 +526,1690 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>4</v>
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>4</v>
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>4</v>
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>4</v>
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32">
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>4</v>
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>4</v>
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>4</v>
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35">
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>4</v>
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>4</v>
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37">
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>4</v>
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>4</v>
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>4</v>
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>4</v>
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41">
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>4</v>
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42">
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>4</v>
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43">
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>4</v>
+      <c r="A44">
+        <v>43</v>
       </c>
       <c r="B44">
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>4</v>
+      <c r="A45">
+        <v>44</v>
       </c>
       <c r="B45">
         <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>4</v>
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="B46">
         <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>4</v>
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>4</v>
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>4</v>
+      <c r="A49">
+        <v>48</v>
       </c>
       <c r="B49">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>4</v>
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50">
         <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>4</v>
+      <c r="A51">
+        <v>50</v>
       </c>
       <c r="B51">
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>4</v>
+      <c r="A52">
+        <v>51</v>
       </c>
       <c r="B52">
         <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>4</v>
+      <c r="A53">
+        <v>52</v>
       </c>
       <c r="B53">
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>4</v>
+      <c r="A54">
+        <v>53</v>
       </c>
       <c r="B54">
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>4</v>
+      <c r="A55">
+        <v>54</v>
       </c>
       <c r="B55">
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>4</v>
+      <c r="A56">
+        <v>55</v>
       </c>
       <c r="B56">
         <v>19</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>4</v>
+      <c r="A57">
+        <v>56</v>
       </c>
       <c r="B57">
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>4</v>
+      <c r="A58">
+        <v>57</v>
       </c>
       <c r="B58">
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>4</v>
+      <c r="A59">
+        <v>58</v>
       </c>
       <c r="B59">
         <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>4</v>
+      <c r="A60">
+        <v>59</v>
       </c>
       <c r="B60">
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>4</v>
+      <c r="A61">
+        <v>60</v>
       </c>
       <c r="B61">
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>4</v>
+      <c r="A62">
+        <v>61</v>
       </c>
       <c r="B62">
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>4</v>
+      <c r="A63">
+        <v>62</v>
       </c>
       <c r="B63">
         <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>4</v>
+      <c r="A64">
+        <v>63</v>
       </c>
       <c r="B64">
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>4</v>
+      <c r="A65">
+        <v>64</v>
       </c>
       <c r="B65">
         <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>4</v>
+      <c r="A66">
+        <v>65</v>
       </c>
       <c r="B66">
         <v>22</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>4</v>
+      <c r="A67">
+        <v>66</v>
       </c>
       <c r="B67">
         <v>22</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>4</v>
+      <c r="A68">
+        <v>67</v>
       </c>
       <c r="B68">
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>4</v>
+      <c r="A69">
+        <v>68</v>
       </c>
       <c r="B69">
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>4</v>
+      <c r="A70">
+        <v>69</v>
       </c>
       <c r="B70">
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>4</v>
+      <c r="A71">
+        <v>70</v>
       </c>
       <c r="B71">
         <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>4</v>
+      <c r="A72">
+        <v>71</v>
       </c>
       <c r="B72">
         <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>4</v>
+      <c r="A73">
+        <v>72</v>
       </c>
       <c r="B73">
         <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>4</v>
+      <c r="A74">
+        <v>73</v>
       </c>
       <c r="B74">
         <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>4</v>
+      <c r="A75">
+        <v>74</v>
       </c>
       <c r="B75">
         <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>4</v>
+      <c r="A76">
+        <v>75</v>
       </c>
       <c r="B76">
         <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>4</v>
+      <c r="A77">
+        <v>76</v>
       </c>
       <c r="B77">
         <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>4</v>
+      <c r="A78">
+        <v>77</v>
       </c>
       <c r="B78">
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>4</v>
+      <c r="A79">
+        <v>78</v>
       </c>
       <c r="B79">
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>4</v>
+      <c r="A80">
+        <v>79</v>
       </c>
       <c r="B80">
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>4</v>
+      <c r="A81">
+        <v>80</v>
       </c>
       <c r="B81">
         <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>4</v>
+      <c r="A82">
+        <v>81</v>
       </c>
       <c r="B82">
         <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>4</v>
+      <c r="A83">
+        <v>82</v>
       </c>
       <c r="B83">
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>4</v>
+      <c r="A84">
+        <v>83</v>
       </c>
       <c r="B84">
         <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>4</v>
+      <c r="A85">
+        <v>84</v>
       </c>
       <c r="B85">
         <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>4</v>
+      <c r="A86">
+        <v>85</v>
       </c>
       <c r="B86">
         <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>4</v>
+      <c r="A87">
+        <v>86</v>
       </c>
       <c r="B87">
         <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>4</v>
+      <c r="A88">
+        <v>87</v>
       </c>
       <c r="B88">
         <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>4</v>
+      <c r="A89">
+        <v>88</v>
       </c>
       <c r="B89">
         <v>30</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>4</v>
+      <c r="A90">
+        <v>89</v>
       </c>
       <c r="B90">
         <v>30</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>4</v>
+      <c r="A91">
+        <v>90</v>
       </c>
       <c r="B91">
         <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>4</v>
+      <c r="A92">
+        <v>91</v>
       </c>
       <c r="B92">
         <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>4</v>
+      <c r="A93">
+        <v>92</v>
       </c>
       <c r="B93">
         <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>4</v>
+      <c r="A94">
+        <v>93</v>
       </c>
       <c r="B94">
         <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>4</v>
+      <c r="A95">
+        <v>94</v>
       </c>
       <c r="B95">
         <v>32</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>4</v>
+      <c r="A96">
+        <v>95</v>
       </c>
       <c r="B96">
         <v>32</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>4</v>
+      <c r="A97">
+        <v>96</v>
       </c>
       <c r="B97">
         <v>32</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>4</v>
+      <c r="A98">
+        <v>97</v>
       </c>
       <c r="B98">
         <v>33</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>4</v>
+      <c r="A99">
+        <v>98</v>
       </c>
       <c r="B99">
         <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>4</v>
+      <c r="A100">
+        <v>99</v>
       </c>
       <c r="B100">
         <v>33</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
